--- a/Unit_01/Unit_01_SampleWork.xlsx
+++ b/Unit_01/Unit_01_SampleWork.xlsx
@@ -8,107 +8,138 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MSDS-DecisionAnalytics\Unit_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAB3C773-E124-44CC-B627-10A521E33D2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F93190-DF21-465E-954B-6749DE74EBC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="45540" windowHeight="23520" activeTab="2" xr2:uid="{29181C83-DE65-499E-8EBA-D0B9BD6ED8DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="45540" windowHeight="23520" activeTab="3" xr2:uid="{29181C83-DE65-499E-8EBA-D0B9BD6ED8DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Legos" sheetId="1" r:id="rId1"/>
     <sheet name="LegoII" sheetId="2" r:id="rId2"/>
     <sheet name="LegoII3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sensitivity Report 1" sheetId="5" r:id="rId4"/>
+    <sheet name="ThemePark" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">LegoII!$D$3:$F$3</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">LegoII3!$D$3:$F$3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">LegoII3!$C$4:$H$4</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Legos!$D$3:$E$3</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">ThemePark!$C$4:$H$4</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">LegoII!$G$8:$G$9</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">LegoII3!$G$8:$G$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">LegoII3!$I$9:$I$14</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Legos!$G$8:$G$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">ThemePark!$I$9:$I$14</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">LegoII!$K$27</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">LegoII3!$K$4</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">LegoII3!$S$6</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Legos!$H$17</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">ThemePark!$I$7</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">LegoII!$K$8:$K$9</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">LegoII3!$K$8:$K$9</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">LegoII3!$K$9:$K$14</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Legos!$K$8:$K$9</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">ThemePark!$K$9:$K$14</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -125,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>Tables</t>
   </si>
@@ -170,13 +201,184 @@
   </si>
   <si>
     <t>Coffee Table</t>
+  </si>
+  <si>
+    <t>Decision Variables</t>
+  </si>
+  <si>
+    <t>Changing Cells</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Objective Cell</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Required 0000 - 0400</t>
+  </si>
+  <si>
+    <t>Required 0400 - 0800</t>
+  </si>
+  <si>
+    <t>Required 0800 - 1200</t>
+  </si>
+  <si>
+    <t>Required 1200 - 1600</t>
+  </si>
+  <si>
+    <t>Required 1600 - 2000</t>
+  </si>
+  <si>
+    <t>Required 2000 - 0000</t>
+  </si>
+  <si>
+    <t>Constraint Name</t>
+  </si>
+  <si>
+    <t>Optimal Solutions:</t>
+  </si>
+  <si>
+    <t>S0000</t>
+  </si>
+  <si>
+    <t>S0400</t>
+  </si>
+  <si>
+    <t>S0800</t>
+  </si>
+  <si>
+    <t>S1200</t>
+  </si>
+  <si>
+    <t>S1600</t>
+  </si>
+  <si>
+    <t>S2000</t>
+  </si>
+  <si>
+    <t>=&gt;</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [Unit_01_SampleWork.xlsx]ThemePark</t>
+  </si>
+  <si>
+    <t>Report Created: 6/12/2019 2:08:11 PM</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>$C$4</t>
+  </si>
+  <si>
+    <t>$D$4</t>
+  </si>
+  <si>
+    <t>$E$4</t>
+  </si>
+  <si>
+    <t>$F$4</t>
+  </si>
+  <si>
+    <t>$G$4</t>
+  </si>
+  <si>
+    <t>$H$4</t>
+  </si>
+  <si>
+    <t>$I$9</t>
+  </si>
+  <si>
+    <t>Required 0000 - 0400 Objective Cell</t>
+  </si>
+  <si>
+    <t>$I$10</t>
+  </si>
+  <si>
+    <t>Required 0400 - 0800 Objective Cell</t>
+  </si>
+  <si>
+    <t>$I$11</t>
+  </si>
+  <si>
+    <t>Required 0800 - 1200 Objective Cell</t>
+  </si>
+  <si>
+    <t>$I$12</t>
+  </si>
+  <si>
+    <t>Required 1200 - 1600 Objective Cell</t>
+  </si>
+  <si>
+    <t>$I$13</t>
+  </si>
+  <si>
+    <t>Required 1600 - 2000 Objective Cell</t>
+  </si>
+  <si>
+    <t>$I$14</t>
+  </si>
+  <si>
+    <t>Required 2000 - 0000 Objective Cell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +401,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +468,44 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -267,13 +554,329 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -283,11 +886,116 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
+    <cellStyle name="Currency 2" xfId="4" xr:uid="{18BF1254-4139-4D07-AD4B-CD80448BBC34}"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{B99F33C2-6816-4DFD-8115-70F3C4FF7288}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -300,6 +1008,264 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>71454</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>196471</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>67580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD66F78F-D3CB-498C-88BC-95CF8B152915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8494867" y="50081"/>
+          <a:ext cx="7281191" cy="2949542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Theme Park Scheduling LP!</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Maintenance at a major theme park in Central Florida is an ongoing process that occurs 24 hours per day.  Because it is a long drive from most residential areas to the park, employees do not like to work shifts fewer than eight hours.  These 8-hour shifts start every four hours throughout the day, but the number of maintenance workers needed at different times throughout the day varies.  The following table summarizes the number of employees needed in each four-hour time period.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Time Period		Minimum # of Employees</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		12AM – 4AM			90</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		4AM – 8AM 			215</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		8AM – 12PM			250</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		12PM – 4PM			165</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		4PM – 8PM			300</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		8PM – 12AM			125</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The maintenance supervisor wants to determine the minimum number of employees to schedule for each shift in order to meet staffing requirements.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -903,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7609A682-3012-4633-914A-5819E242EBF0}">
   <dimension ref="A2:L9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,15 +2026,745 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B12E5-078F-48ED-A413-D3E7E46489A0}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81923A4-2B31-470C-A1CC-8826BA7732E9}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="44">
+        <v>90</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0</v>
+      </c>
+      <c r="F9" s="44">
+        <v>1</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0</v>
+      </c>
+      <c r="H9" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="44">
+        <v>125</v>
+      </c>
+      <c r="E10" s="44">
+        <v>0</v>
+      </c>
+      <c r="F10" s="44">
+        <v>1</v>
+      </c>
+      <c r="G10" s="44">
+        <v>1</v>
+      </c>
+      <c r="H10" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="44">
+        <v>125</v>
+      </c>
+      <c r="E11" s="44">
+        <v>0</v>
+      </c>
+      <c r="F11" s="44">
+        <v>1</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0</v>
+      </c>
+      <c r="H11" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="44">
+        <v>175</v>
+      </c>
+      <c r="E12" s="44">
+        <v>0</v>
+      </c>
+      <c r="F12" s="44">
+        <v>1</v>
+      </c>
+      <c r="G12" s="44">
+        <v>0</v>
+      </c>
+      <c r="H12" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="44">
+        <v>125</v>
+      </c>
+      <c r="E13" s="44">
+        <v>0</v>
+      </c>
+      <c r="F13" s="44">
+        <v>1</v>
+      </c>
+      <c r="G13" s="44">
+        <v>0</v>
+      </c>
+      <c r="H13" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="45">
+        <v>0</v>
+      </c>
+      <c r="E14" s="45">
+        <v>0</v>
+      </c>
+      <c r="F14" s="45">
+        <v>1</v>
+      </c>
+      <c r="G14" s="45">
+        <v>1E+30</v>
+      </c>
+      <c r="H14" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="44">
+        <v>90</v>
+      </c>
+      <c r="E19" s="44">
+        <v>1</v>
+      </c>
+      <c r="F19" s="44">
+        <v>90</v>
+      </c>
+      <c r="G19" s="44">
+        <v>125</v>
+      </c>
+      <c r="H19" s="44">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="44">
+        <v>215</v>
+      </c>
+      <c r="E20" s="44">
+        <v>0</v>
+      </c>
+      <c r="F20" s="44">
+        <v>215</v>
+      </c>
+      <c r="G20" s="44">
+        <v>125</v>
+      </c>
+      <c r="H20" s="44">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="44">
+        <v>250</v>
+      </c>
+      <c r="E21" s="44">
+        <v>1</v>
+      </c>
+      <c r="F21" s="44">
+        <v>250</v>
+      </c>
+      <c r="G21" s="44">
+        <v>1E+30</v>
+      </c>
+      <c r="H21" s="44">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="44">
+        <v>300</v>
+      </c>
+      <c r="E22" s="44">
+        <v>0</v>
+      </c>
+      <c r="F22" s="44">
+        <v>165</v>
+      </c>
+      <c r="G22" s="44">
+        <v>135</v>
+      </c>
+      <c r="H22" s="44">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="44">
+        <v>300</v>
+      </c>
+      <c r="E23" s="44">
+        <v>1</v>
+      </c>
+      <c r="F23" s="44">
+        <v>300</v>
+      </c>
+      <c r="G23" s="44">
+        <v>1E+30</v>
+      </c>
+      <c r="H23" s="44">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="45">
+        <v>125</v>
+      </c>
+      <c r="E24" s="45">
+        <v>0</v>
+      </c>
+      <c r="F24" s="45">
+        <v>125</v>
+      </c>
+      <c r="G24" s="45">
+        <v>135</v>
+      </c>
+      <c r="H24" s="45">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147B12E5-078F-48ED-A413-D3E7E46489A0}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="11.140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5"/>
+    <col min="11" max="11" width="7.7109375" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
+        <v>90</v>
+      </c>
+      <c r="D4" s="16">
+        <v>125</v>
+      </c>
+      <c r="E4" s="16">
+        <v>125</v>
+      </c>
+      <c r="F4" s="16">
+        <v>175</v>
+      </c>
+      <c r="G4" s="16">
+        <v>125</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="23">
+        <v>1</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="23">
+        <v>1</v>
+      </c>
+      <c r="I7" s="24">
+        <f>SUMPRODUCT(C7:H7,C$4:H$4)</f>
+        <v>640</v>
+      </c>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="29">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29">
+        <v>1</v>
+      </c>
+      <c r="I9" s="30">
+        <f>SUMPRODUCT(C9:H9,C$4:H$4)</f>
+        <v>90</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="31">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34">
+        <v>1</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="30">
+        <f t="shared" ref="I10:I14" si="0">SUMPRODUCT(C10:H10,C$4:H$4)</f>
+        <v>215</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34">
+        <v>1</v>
+      </c>
+      <c r="E11" s="34">
+        <v>1</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="30">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34">
+        <v>1</v>
+      </c>
+      <c r="F12" s="34">
+        <v>1</v>
+      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="30">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34">
+        <v>1</v>
+      </c>
+      <c r="G13" s="34">
+        <v>1</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="30">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34">
+        <v>1</v>
+      </c>
+      <c r="H14" s="34">
+        <v>1</v>
+      </c>
+      <c r="I14" s="30">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unit_01/Unit_01_SampleWork.xlsx
+++ b/Unit_01/Unit_01_SampleWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MSDS-DecisionAnalytics\Unit_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F93190-DF21-465E-954B-6749DE74EBC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8185D8F-9B90-4FC9-8ABB-06AEACC3BBC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="45540" windowHeight="23520" activeTab="3" xr2:uid="{29181C83-DE65-499E-8EBA-D0B9BD6ED8DD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="45540" windowHeight="23520" activeTab="6" xr2:uid="{29181C83-DE65-499E-8EBA-D0B9BD6ED8DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Legos" sheetId="1" r:id="rId1"/>
@@ -18,124 +18,159 @@
     <sheet name="LegoII3" sheetId="3" r:id="rId3"/>
     <sheet name="Sensitivity Report 1" sheetId="5" r:id="rId4"/>
     <sheet name="ThemePark" sheetId="4" r:id="rId5"/>
+    <sheet name="Sensitivity Report 2" sheetId="7" r:id="rId6"/>
+    <sheet name="Hot dog" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Hot dog'!$C$4:$F$4</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">LegoII!$D$3:$F$3</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">LegoII3!$C$4:$H$4</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Legos!$D$3:$E$3</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">ThemePark!$C$4:$H$4</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Hot dog'!$G$12:$G$14</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">LegoII!$G$8:$G$9</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">LegoII3!$I$9:$I$14</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Legos!$G$8:$G$9</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">ThemePark!$I$9:$I$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Hot dog'!$G$9:$G$11</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Hot dog'!$G$7</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">LegoII!$K$27</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">LegoII3!$S$6</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Legos!$H$17</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">ThemePark!$I$7</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">'Hot dog'!$I$12:$I$14</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">LegoII!$K$8:$K$9</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">LegoII3!$K$9:$K$14</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Legos!$K$8:$K$9</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">ThemePark!$K$9:$K$14</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">'Hot dog'!$I$9:$I$11</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
@@ -156,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="108">
   <si>
     <t>Tables</t>
   </si>
@@ -369,16 +404,130 @@
   </si>
   <si>
     <t>Required 2000 - 0000 Objective Cell</t>
+  </si>
+  <si>
+    <t>Problem 3-35</t>
+  </si>
+  <si>
+    <t>Decision Variables POUNDS of product</t>
+  </si>
+  <si>
+    <t>Beef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pork </t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Cost Per Pound</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>USED</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>Calories/lb</t>
+  </si>
+  <si>
+    <t>Calories</t>
+  </si>
+  <si>
+    <t>Fat (g/lb)</t>
+  </si>
+  <si>
+    <t>Fat</t>
+  </si>
+  <si>
+    <t>Cholestrerol (g/lb)</t>
+  </si>
+  <si>
+    <t>Cholesterol</t>
+  </si>
+  <si>
+    <t>of total</t>
+  </si>
+  <si>
+    <t>Total Weight (lbs)</t>
+  </si>
+  <si>
+    <t>pounds</t>
+  </si>
+  <si>
+    <t>ounces</t>
+  </si>
+  <si>
+    <t>Cost per Pound</t>
+  </si>
+  <si>
+    <t>LIMITS</t>
+  </si>
+  <si>
+    <t>Worksheet: [Unit_01_SampleWork.xlsx]Hot dog</t>
+  </si>
+  <si>
+    <t>Report Created: 6/12/2019 3:31:57 PM</t>
+  </si>
+  <si>
+    <t>$G$12</t>
+  </si>
+  <si>
+    <t>Beef USED</t>
+  </si>
+  <si>
+    <t>$G$13</t>
+  </si>
+  <si>
+    <t>Pork  USED</t>
+  </si>
+  <si>
+    <t>$G$14</t>
+  </si>
+  <si>
+    <t>Total Weight (lbs) USED</t>
+  </si>
+  <si>
+    <t>$G$9</t>
+  </si>
+  <si>
+    <t>Calories/lb USED</t>
+  </si>
+  <si>
+    <t>$G$10</t>
+  </si>
+  <si>
+    <t>Fat (g/lb) USED</t>
+  </si>
+  <si>
+    <t>$G$11</t>
+  </si>
+  <si>
+    <t>Cholestrerol (g/lb) USED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,8 +599,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,8 +675,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -868,6 +1045,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -876,7 +1261,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
@@ -987,6 +1372,144 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="7" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="8" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1260,6 +1783,92 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32F30EA0-8038-4F5A-94B9-0C4B330A2C52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="3609976"/>
+          <a:ext cx="7258050" cy="2076449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800"/>
+            <a:t>Oliver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t> Meyer hopes to follow his uncle Oscar's success in the hot dog business by creating a low-calorie, low-fat, low-cholesterol hot  dog made of at least 25% beef and 25% pork plus either chicken or turkey, or both.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0"/>
+            <a:t>Oliver will market the 2 ounce dogs as all-meat with no fillers. Each dog will must have no more than 6 grams of fat, 27 grams of cholesterol, and 100 calories.  The cost of ingredients and their relevant information is shown. Create a min-cost Hot Dog that meets all requirements at 2 ounces.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2029,8 +2638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81923A4-2B31-470C-A1CC-8826BA7732E9}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,4 +3376,822 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAAB897-569C-4AAA-88C2-2D7245C78C03}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="44">
+        <v>8.8378527946873259E-2</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0.76</v>
+      </c>
+      <c r="G9" s="44">
+        <v>8.0000000000000168E-2</v>
+      </c>
+      <c r="H9" s="44">
+        <v>5.3266866976235804E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="44">
+        <v>4.1173215273934707E-2</v>
+      </c>
+      <c r="E10" s="44">
+        <v>0</v>
+      </c>
+      <c r="F10" s="44">
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0.43281249999999977</v>
+      </c>
+      <c r="H10" s="44">
+        <v>7.8095238095238245E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0</v>
+      </c>
+      <c r="E11" s="44">
+        <v>-0.17607083563918077</v>
+      </c>
+      <c r="F11" s="44">
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0.17607083563918077</v>
+      </c>
+      <c r="H11" s="44">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="45">
+        <v>0</v>
+      </c>
+      <c r="E12" s="45">
+        <v>-4.3167681239623522E-2</v>
+      </c>
+      <c r="F12" s="45">
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="G12" s="45">
+        <v>4.3167681239623522E-2</v>
+      </c>
+      <c r="H12" s="45">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="44">
+        <v>8.8378527946873259E-2</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0</v>
+      </c>
+      <c r="G17" s="44">
+        <v>6.6283895960154951E-2</v>
+      </c>
+      <c r="H17" s="44">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="44">
+        <v>4.1173215273934707E-2</v>
+      </c>
+      <c r="E18" s="44">
+        <v>0</v>
+      </c>
+      <c r="F18" s="44">
+        <v>0</v>
+      </c>
+      <c r="G18" s="44">
+        <v>3.0879911455451031E-2</v>
+      </c>
+      <c r="H18" s="44">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="44">
+        <v>0.12955174322080798</v>
+      </c>
+      <c r="E19" s="44">
+        <v>0</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0</v>
+      </c>
+      <c r="G19" s="44">
+        <v>4.5517432208079696E-3</v>
+      </c>
+      <c r="H19" s="44">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="44">
+        <v>100</v>
+      </c>
+      <c r="E20" s="44">
+        <v>1.8151632540121785E-4</v>
+      </c>
+      <c r="F20" s="44">
+        <v>100</v>
+      </c>
+      <c r="G20" s="44">
+        <v>17.4681988241582</v>
+      </c>
+      <c r="H20" s="44">
+        <v>17.714285714285715</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="44">
+        <v>5.0956557830658546</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0</v>
+      </c>
+      <c r="F21" s="44">
+        <v>6</v>
+      </c>
+      <c r="G21" s="44">
+        <v>1E+30</v>
+      </c>
+      <c r="H21" s="44">
+        <v>0.9043442169341448</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="45">
+        <v>27</v>
+      </c>
+      <c r="E22" s="45">
+        <v>3.0658550083010501E-3</v>
+      </c>
+      <c r="F22" s="45">
+        <v>27</v>
+      </c>
+      <c r="G22" s="45">
+        <v>5.8125</v>
+      </c>
+      <c r="H22" s="45">
+        <v>0.99096385542168686</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556265DB-04D9-4188-8995-1A8A60FB7862}">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9" style="5"/>
+    <col min="7" max="7" width="10.42578125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="9" style="5"/>
+    <col min="10" max="10" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="54"/>
+      <c r="J3" s="48"/>
+    </row>
+    <row r="4" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D4" s="63">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E4" s="63">
+        <v>0</v>
+      </c>
+      <c r="F4" s="63">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G4" s="64"/>
+      <c r="J4" s="48"/>
+    </row>
+    <row r="5" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="J5" s="48"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="48"/>
+    </row>
+    <row r="7" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="69"/>
+      <c r="B7" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="71">
+        <v>0.76</v>
+      </c>
+      <c r="D7" s="71">
+        <v>0.82</v>
+      </c>
+      <c r="E7" s="71">
+        <v>0.64</v>
+      </c>
+      <c r="F7" s="71">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G7" s="72">
+        <f>SUMPRODUCT(C7:F7,C4:F4)</f>
+        <v>8.5625000000000007E-2</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="48"/>
+    </row>
+    <row r="8" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="48"/>
+    </row>
+    <row r="9" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="76">
+        <v>640</v>
+      </c>
+      <c r="D9" s="76">
+        <v>1055</v>
+      </c>
+      <c r="E9" s="76">
+        <v>780</v>
+      </c>
+      <c r="F9" s="76">
+        <v>528</v>
+      </c>
+      <c r="G9" s="97">
+        <f>SUMPRODUCT(C9:F9,C$4:F$4)</f>
+        <v>85.96875</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="31">
+        <v>100</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+    </row>
+    <row r="10" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="78"/>
+      <c r="B10" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="76">
+        <v>32.5</v>
+      </c>
+      <c r="D10" s="76">
+        <v>54</v>
+      </c>
+      <c r="E10" s="76">
+        <v>25.6</v>
+      </c>
+      <c r="F10" s="76">
+        <v>6.4</v>
+      </c>
+      <c r="G10" s="97">
+        <f t="shared" ref="G10:G14" si="0">SUMPRODUCT(C10:F10,C$4:F$4)</f>
+        <v>3.1031249999999999</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="35">
+        <v>6</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+    </row>
+    <row r="11" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="76">
+        <v>210</v>
+      </c>
+      <c r="D11" s="76">
+        <v>205</v>
+      </c>
+      <c r="E11" s="76">
+        <v>220</v>
+      </c>
+      <c r="F11" s="76">
+        <v>172</v>
+      </c>
+      <c r="G11" s="97">
+        <f t="shared" si="0"/>
+        <v>23.71875</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="35">
+        <v>27</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+    </row>
+    <row r="12" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="76">
+        <v>1</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="97">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H12" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="35">
+        <f>J12*I14</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="J12" s="80">
+        <v>0.25</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="78"/>
+      <c r="B13" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76">
+        <v>1</v>
+      </c>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="97">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H13" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="35">
+        <f>I14*J13</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="J13" s="80">
+        <v>0.25</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="76">
+        <v>1</v>
+      </c>
+      <c r="D14" s="76">
+        <v>1</v>
+      </c>
+      <c r="E14" s="76">
+        <v>1</v>
+      </c>
+      <c r="F14" s="76">
+        <v>1</v>
+      </c>
+      <c r="G14" s="97">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="H14" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="82">
+        <f>K14/16</f>
+        <v>0.125</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="83">
+        <v>2</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="G15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+    </row>
+    <row r="16" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="88">
+        <v>0.76</v>
+      </c>
+      <c r="D17" s="88">
+        <v>0.82</v>
+      </c>
+      <c r="E17" s="88">
+        <v>0.64</v>
+      </c>
+      <c r="F17" s="89">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G17" s="90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B18" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="92">
+        <v>640</v>
+      </c>
+      <c r="D18" s="92">
+        <v>1055</v>
+      </c>
+      <c r="E18" s="92">
+        <v>780</v>
+      </c>
+      <c r="F18" s="92">
+        <v>528</v>
+      </c>
+      <c r="G18" s="93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B19" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="95">
+        <v>32.5</v>
+      </c>
+      <c r="D19" s="95">
+        <v>54</v>
+      </c>
+      <c r="E19" s="95">
+        <v>25.6</v>
+      </c>
+      <c r="F19" s="95">
+        <v>6.4</v>
+      </c>
+      <c r="G19" s="93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B20" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="95">
+        <v>210</v>
+      </c>
+      <c r="D20" s="95">
+        <v>205</v>
+      </c>
+      <c r="E20" s="95">
+        <v>220</v>
+      </c>
+      <c r="F20" s="95">
+        <v>172</v>
+      </c>
+      <c r="G20" s="93">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Unit_01/Unit_01_SampleWork.xlsx
+++ b/Unit_01/Unit_01_SampleWork.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MSDS-DecisionAnalytics\Unit_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MSDS-DecisionAnalytics\Unit_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8185D8F-9B90-4FC9-8ABB-06AEACC3BBC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744D8A0F-C205-4A6B-9B2F-6D3418692C94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="45540" windowHeight="23520" activeTab="6" xr2:uid="{29181C83-DE65-499E-8EBA-D0B9BD6ED8DD}"/>
+    <workbookView xWindow="-28365" yWindow="1560" windowWidth="25275" windowHeight="18105" firstSheet="3" activeTab="6" xr2:uid="{29181C83-DE65-499E-8EBA-D0B9BD6ED8DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Legos" sheetId="1" r:id="rId1"/>
@@ -20,160 +20,194 @@
     <sheet name="ThemePark" sheetId="4" r:id="rId5"/>
     <sheet name="Sensitivity Report 2" sheetId="7" r:id="rId6"/>
     <sheet name="Hot dog" sheetId="6" r:id="rId7"/>
+    <sheet name="Products" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'Hot dog'!$C$4:$F$4</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">LegoII!$D$3:$F$3</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">LegoII3!$C$4:$H$4</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Legos!$D$3:$E$3</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">Products!$D$3:$E$3</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">ThemePark!$C$4:$H$4</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Hot dog'!$G$12:$G$14</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">LegoII!$G$8:$G$9</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">LegoII3!$I$9:$I$14</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Legos!$G$8:$G$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">Products!$G$10</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">ThemePark!$I$9:$I$14</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Hot dog'!$G$9:$G$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">Products!$G$8:$G$9</definedName>
     <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'Hot dog'!$G$7</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">LegoII!$K$27</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">LegoII3!$S$6</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Legos!$H$17</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">Products!$K$4</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">ThemePark!$I$7</definedName>
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">'Hot dog'!$I$12:$I$14</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">LegoII!$K$8:$K$9</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">LegoII3!$K$9:$K$14</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Legos!$K$8:$K$9</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">Products!$K$10</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">ThemePark!$K$9:$K$14</definedName>
     <definedName name="solver_rhs2" localSheetId="6" hidden="1">'Hot dog'!$I$9:$I$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">Products!$K$8:$K$9</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -184,6 +218,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -191,7 +226,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
   <si>
     <t>Tables</t>
   </si>
@@ -515,6 +550,24 @@
   </si>
   <si>
     <t>Cholestrerol (g/lb) USED</t>
+  </si>
+  <si>
+    <t>Working Hours</t>
+  </si>
+  <si>
+    <t>Machine Hours</t>
+  </si>
+  <si>
+    <t>Product 1</t>
+  </si>
+  <si>
+    <t>Product 2</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -523,9 +576,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1264,58 +1317,22 @@
   <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1325,9 +1342,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1337,9 +1351,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1377,28 +1388,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,12 +1398,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1422,9 +1406,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,21 +1414,15 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="7" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,9 +1431,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1509,8 +1481,89 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="11" fillId="8" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="8" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2177,7 +2230,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="K14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,10 +2252,10 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>6</v>
       </c>
       <c r="K3" t="s">
@@ -2219,11 +2272,11 @@
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="71">
         <f>SUMPRODUCT(D4:E4,D3:E3)</f>
         <v>108</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
@@ -2319,7 +2372,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2344,13 +2397,13 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="K3" t="s">
@@ -2370,11 +2423,11 @@
       <c r="F4">
         <v>15</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="71">
         <f>SUMPRODUCT(D4:F4,D3:F3)</f>
         <v>110</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
@@ -2504,13 +2557,13 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
       <c r="K3" t="s">
@@ -2530,11 +2583,11 @@
       <c r="F4">
         <v>13.5</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="71">
         <f>SUMPRODUCT(D4:F4,D3:F3)</f>
         <v>99</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="72"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G5" s="1" t="s">
@@ -2654,17 +2707,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2674,182 +2727,182 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="30">
         <v>90</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="30">
         <v>0</v>
       </c>
-      <c r="F9" s="44">
-        <v>1</v>
-      </c>
-      <c r="G9" s="44">
+      <c r="F9" s="30">
+        <v>1</v>
+      </c>
+      <c r="G9" s="30">
         <v>0</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="30">
         <v>125</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="30">
         <v>0</v>
       </c>
-      <c r="F10" s="44">
-        <v>1</v>
-      </c>
-      <c r="G10" s="44">
-        <v>1</v>
-      </c>
-      <c r="H10" s="44">
+      <c r="F10" s="30">
+        <v>1</v>
+      </c>
+      <c r="G10" s="30">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="30">
         <v>125</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="30">
         <v>0</v>
       </c>
-      <c r="F11" s="44">
-        <v>1</v>
-      </c>
-      <c r="G11" s="44">
+      <c r="F11" s="30">
+        <v>1</v>
+      </c>
+      <c r="G11" s="30">
         <v>0</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="30">
         <v>175</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="30">
         <v>0</v>
       </c>
-      <c r="F12" s="44">
-        <v>1</v>
-      </c>
-      <c r="G12" s="44">
+      <c r="F12" s="30">
+        <v>1</v>
+      </c>
+      <c r="G12" s="30">
         <v>0</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="30">
         <v>125</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="30">
         <v>0</v>
       </c>
-      <c r="F13" s="44">
-        <v>1</v>
-      </c>
-      <c r="G13" s="44">
+      <c r="F13" s="30">
+        <v>1</v>
+      </c>
+      <c r="G13" s="30">
         <v>0</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="31">
         <v>0</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="31">
         <v>0</v>
       </c>
-      <c r="F14" s="45">
-        <v>1</v>
-      </c>
-      <c r="G14" s="45">
+      <c r="F14" s="31">
+        <v>1</v>
+      </c>
+      <c r="G14" s="31">
         <v>1E+30</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="31">
         <v>0</v>
       </c>
     </row>
@@ -2859,182 +2912,182 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46" t="s">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="46" t="s">
+      <c r="F17" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="30">
         <v>90</v>
       </c>
-      <c r="E19" s="44">
-        <v>1</v>
-      </c>
-      <c r="F19" s="44">
+      <c r="E19" s="30">
+        <v>1</v>
+      </c>
+      <c r="F19" s="30">
         <v>90</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="30">
         <v>125</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="30">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="30">
         <v>215</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="30">
         <v>0</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="30">
         <v>215</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="30">
         <v>125</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="30">
         <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="30">
         <v>250</v>
       </c>
-      <c r="E21" s="44">
-        <v>1</v>
-      </c>
-      <c r="F21" s="44">
+      <c r="E21" s="30">
+        <v>1</v>
+      </c>
+      <c r="F21" s="30">
         <v>250</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="30">
         <v>1E+30</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="30">
         <v>125</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="30">
         <v>300</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="30">
         <v>0</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="30">
         <v>165</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="30">
         <v>135</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="30">
         <v>1E+30</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="30">
         <v>300</v>
       </c>
-      <c r="E23" s="44">
-        <v>1</v>
-      </c>
-      <c r="F23" s="44">
+      <c r="E23" s="30">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30">
         <v>300</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="30">
         <v>1E+30</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="30">
         <v>135</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="31">
         <v>125</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="31">
         <v>0</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="31">
         <v>125</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="31">
         <v>135</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="31">
         <v>125</v>
       </c>
     </row>
@@ -3054,316 +3107,316 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="9" style="5"/>
-    <col min="9" max="9" width="11.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9" style="5"/>
-    <col min="11" max="11" width="7.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9" style="3"/>
+    <col min="9" max="9" width="11.140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="7.7109375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="6"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="6">
         <v>90</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="6">
         <v>125</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="6">
         <v>125</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="6">
         <v>175</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="6">
         <v>125</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
-        <v>1</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1</v>
-      </c>
-      <c r="F7" s="23">
-        <v>1</v>
-      </c>
-      <c r="G7" s="23">
-        <v>1</v>
-      </c>
-      <c r="H7" s="23">
-        <v>1</v>
-      </c>
-      <c r="I7" s="24">
+      <c r="C7" s="11">
+        <v>1</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
         <f>SUMPRODUCT(C7:H7,C$4:H$4)</f>
         <v>640</v>
       </c>
-      <c r="J7" s="25"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="J8" s="26"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="29">
-        <v>1</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29">
-        <v>1</v>
-      </c>
-      <c r="I9" s="30">
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17">
         <f>SUMPRODUCT(C9:H9,C$4:H$4)</f>
         <v>90</v>
       </c>
-      <c r="J9" s="42" t="s">
+      <c r="J9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="18">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="84"/>
+      <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="34">
-        <v>1</v>
-      </c>
-      <c r="D10" s="34">
-        <v>1</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="30">
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="17">
         <f t="shared" ref="I10:I14" si="0">SUMPRODUCT(C10:H10,C$4:H$4)</f>
         <v>215</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="21">
         <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="84"/>
+      <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34">
-        <v>1</v>
-      </c>
-      <c r="E11" s="34">
-        <v>1</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="30">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20">
+        <v>1</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="17">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="21">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33" t="s">
+      <c r="A12" s="84"/>
+      <c r="B12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34">
-        <v>1</v>
-      </c>
-      <c r="F12" s="34">
-        <v>1</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="30">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20">
+        <v>1</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="17">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J12" s="42" t="s">
+      <c r="J12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="21">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="84"/>
+      <c r="B13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34">
-        <v>1</v>
-      </c>
-      <c r="G13" s="34">
-        <v>1</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="30">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="17">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J13" s="42" t="s">
+      <c r="J13" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="21">
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="84"/>
+      <c r="B14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34">
-        <v>1</v>
-      </c>
-      <c r="H14" s="34">
-        <v>1</v>
-      </c>
-      <c r="I14" s="30">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="21">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="40"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3396,17 +3449,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="29" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="29" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="29" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3416,136 +3469,136 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46" t="s">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="47" t="s">
+      <c r="H8" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="30">
         <v>8.8378527946873259E-2</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="30">
         <v>0</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="30">
         <v>0.76</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="30">
         <v>8.0000000000000168E-2</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="30">
         <v>5.3266866976235804E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="30">
         <v>4.1173215273934707E-2</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="30">
         <v>0</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="30">
         <v>0.82000000000000006</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="30">
         <v>0.43281249999999977</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="30">
         <v>7.8095238095238245E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="30">
         <v>0</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="30">
         <v>-0.17607083563918077</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="30">
         <v>0.64000000000000012</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="30">
         <v>0.17607083563918077</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="30">
         <v>1E+30</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="31">
         <v>0</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="31">
         <v>-4.3167681239623522E-2</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="31">
         <v>0.58000000000000007</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="31">
         <v>4.3167681239623522E-2</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="31">
         <v>1E+30</v>
       </c>
     </row>
@@ -3555,182 +3608,182 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="30">
         <v>8.8378527946873259E-2</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="30">
         <v>0</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="30">
         <v>0</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="30">
         <v>6.6283895960154951E-2</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="30">
         <v>1E+30</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="30">
         <v>4.1173215273934707E-2</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="30">
         <v>0</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="30">
         <v>0</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="30">
         <v>3.0879911455451031E-2</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="30">
         <v>1E+30</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="30">
         <v>0.12955174322080798</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="30">
         <v>0</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="30">
         <v>0</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="30">
         <v>4.5517432208079696E-3</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="30">
         <v>1E+30</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="30">
         <v>100</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="30">
         <v>1.8151632540121785E-4</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="30">
         <v>100</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="30">
         <v>17.4681988241582</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="30">
         <v>17.714285714285715</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="30">
         <v>5.0956557830658546</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="30">
         <v>0</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="30">
         <v>6</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="30">
         <v>1E+30</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="30">
         <v>0.9043442169341448</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="31">
         <v>27</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="31">
         <v>3.0658550083010501E-3</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="31">
         <v>27</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="31">
         <v>5.8125</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="31">
         <v>0.99096385542168686</v>
       </c>
     </row>
@@ -3745,442 +3798,442 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="10.42578125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="9" style="5"/>
-    <col min="10" max="10" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="10.42578125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9" style="3"/>
+    <col min="10" max="10" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="48"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54"/>
-      <c r="J2" s="48"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="35"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="57" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="J3" s="48"/>
+      <c r="G3" s="35"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62">
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="39">
         <v>3.125E-2</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="40">
         <v>3.125E-2</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="40">
         <v>0</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="40">
         <v>6.25E-2</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="J4" s="48"/>
+      <c r="G4" s="41"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="J5" s="48"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="48"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70" t="s">
+      <c r="A7" s="95"/>
+      <c r="B7" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="46">
         <v>0.76</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="46">
         <v>0.82</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="46">
         <v>0.64</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="46">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="47">
         <f>SUMPRODUCT(C7:F7,C4:F4)</f>
         <v>8.5625000000000007E-2</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="48"/>
+      <c r="J7" s="34"/>
     </row>
     <row r="8" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="73" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="34"/>
     </row>
     <row r="9" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="76">
+      <c r="C9" s="50">
         <v>640</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="50">
         <v>1055</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="50">
         <v>780</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="50">
         <v>528</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="70">
         <f>SUMPRODUCT(C9:F9,C$4:F$4)</f>
         <v>85.96875</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="18">
         <v>100</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79" t="s">
+      <c r="A10" s="97"/>
+      <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="76">
+      <c r="C10" s="50">
         <v>32.5</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="50">
         <v>54</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="50">
         <v>25.6</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="50">
         <v>6.4</v>
       </c>
-      <c r="G10" s="97">
+      <c r="G10" s="70">
         <f t="shared" ref="G10:G14" si="0">SUMPRODUCT(C10:F10,C$4:F$4)</f>
         <v>3.1031249999999999</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="35">
+      <c r="I10" s="21">
         <v>6</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
     </row>
     <row r="11" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79" t="s">
+      <c r="A11" s="97"/>
+      <c r="B11" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="76">
+      <c r="C11" s="50">
         <v>210</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="50">
         <v>205</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="50">
         <v>220</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="50">
         <v>172</v>
       </c>
-      <c r="G11" s="97">
+      <c r="G11" s="70">
         <f t="shared" si="0"/>
         <v>23.71875</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="21">
         <v>27</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
     </row>
     <row r="12" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="76">
-        <v>1</v>
-      </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="97">
+      <c r="C12" s="50">
+        <v>1</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="70">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="H12" s="96" t="s">
+      <c r="H12" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="21">
         <f>J12*I14</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J12" s="80">
+      <c r="J12" s="53">
         <v>0.25</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79" t="s">
+      <c r="A13" s="97"/>
+      <c r="B13" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76">
-        <v>1</v>
-      </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="97">
+      <c r="C13" s="50"/>
+      <c r="D13" s="50">
+        <v>1</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="70">
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="H13" s="96" t="s">
+      <c r="H13" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="21">
         <f>I14*J13</f>
         <v>3.125E-2</v>
       </c>
-      <c r="J13" s="80">
+      <c r="J13" s="53">
         <v>0.25</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="76">
-        <v>1</v>
-      </c>
-      <c r="D14" s="76">
-        <v>1</v>
-      </c>
-      <c r="E14" s="76">
-        <v>1</v>
-      </c>
-      <c r="F14" s="76">
-        <v>1</v>
-      </c>
-      <c r="G14" s="97">
+      <c r="C14" s="50">
+        <v>1</v>
+      </c>
+      <c r="D14" s="50">
+        <v>1</v>
+      </c>
+      <c r="E14" s="50">
+        <v>1</v>
+      </c>
+      <c r="F14" s="50">
+        <v>1</v>
+      </c>
+      <c r="G14" s="70">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="H14" s="96" t="s">
+      <c r="H14" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="82">
+      <c r="I14" s="55">
         <f>K14/16</f>
         <v>0.125</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="83">
+      <c r="K14" s="56">
         <v>2</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="G15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="G15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="84" t="s">
+      <c r="C16" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="85" t="s">
+      <c r="D16" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="86" t="s">
+      <c r="F16" s="59" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C17" s="61">
         <v>0.76</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D17" s="61">
         <v>0.82</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="61">
         <v>0.64</v>
       </c>
-      <c r="F17" s="89">
+      <c r="F17" s="62">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G17" s="90" t="s">
+      <c r="G17" s="63" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="92">
+      <c r="C18" s="65">
         <v>640</v>
       </c>
-      <c r="D18" s="92">
+      <c r="D18" s="65">
         <v>1055</v>
       </c>
-      <c r="E18" s="92">
+      <c r="E18" s="65">
         <v>780</v>
       </c>
-      <c r="F18" s="92">
+      <c r="F18" s="65">
         <v>528</v>
       </c>
-      <c r="G18" s="93">
+      <c r="G18" s="66">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="95">
+      <c r="C19" s="68">
         <v>32.5</v>
       </c>
-      <c r="D19" s="95">
+      <c r="D19" s="68">
         <v>54</v>
       </c>
-      <c r="E19" s="95">
+      <c r="E19" s="68">
         <v>25.6</v>
       </c>
-      <c r="F19" s="95">
+      <c r="F19" s="68">
         <v>6.4</v>
       </c>
-      <c r="G19" s="93">
+      <c r="G19" s="66">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="95">
+      <c r="C20" s="68">
         <v>210</v>
       </c>
-      <c r="D20" s="95">
+      <c r="D20" s="68">
         <v>205</v>
       </c>
-      <c r="E20" s="95">
+      <c r="E20" s="68">
         <v>220</v>
       </c>
-      <c r="F20" s="95">
+      <c r="F20" s="68">
         <v>172</v>
       </c>
-      <c r="G20" s="93">
+      <c r="G20" s="66">
         <v>27</v>
       </c>
     </row>
@@ -4194,4 +4247,167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECBF69D-DDB4-499D-A42D-95AEAC76F832}">
+  <dimension ref="A2:L10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>19.999999999999996</v>
+      </c>
+      <c r="E3" s="2">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="K4" s="71">
+        <f>SUMPRODUCT(D4:E4,D3:E3)</f>
+        <v>4900</v>
+      </c>
+      <c r="L4" s="72"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <f>SUMPRODUCT(D8:E8,$D$3:$E$3)</f>
+        <v>2100</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1">
+        <f>SUMPRODUCT(D9:E9,$D$3:$E$3)</f>
+        <v>850</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>SUMPRODUCT(D10:E10,D3:E3)</f>
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K4:L4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unit_01/Unit_01_SampleWork.xlsx
+++ b/Unit_01/Unit_01_SampleWork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\MSDS-DecisionAnalytics\Unit_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744D8A0F-C205-4A6B-9B2F-6D3418692C94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B6FC83-DDD2-49D9-B102-3C6AF656CCCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28365" yWindow="1560" windowWidth="25275" windowHeight="18105" firstSheet="3" activeTab="6" xr2:uid="{29181C83-DE65-499E-8EBA-D0B9BD6ED8DD}"/>
+    <workbookView xWindow="-39795" yWindow="2640" windowWidth="23145" windowHeight="16665" firstSheet="2" activeTab="6" xr2:uid="{29181C83-DE65-499E-8EBA-D0B9BD6ED8DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Legos" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sensitivity Report 2" sheetId="7" r:id="rId6"/>
     <sheet name="Hot dog" sheetId="6" r:id="rId7"/>
     <sheet name="Products" sheetId="8" r:id="rId8"/>
+    <sheet name="Transportation" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'Hot dog'!$C$4:$F$4</definedName>
@@ -29,186 +30,219 @@
     <definedName name="solver_adj" localSheetId="0" hidden="1">Legos!$D$3:$E$3</definedName>
     <definedName name="solver_adj" localSheetId="7" hidden="1">Products!$D$3:$E$3</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">ThemePark!$C$4:$H$4</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">Transportation!$C$9:$H$9</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Hot dog'!$G$12:$G$14</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">LegoII!$G$8:$G$9</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">LegoII3!$I$9:$I$14</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Legos!$G$8:$G$9</definedName>
     <definedName name="solver_lhs1" localSheetId="7" hidden="1">Products!$G$10</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">ThemePark!$I$9:$I$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">Transportation!$J$13:$J$14</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Hot dog'!$G$9:$G$11</definedName>
     <definedName name="solver_lhs2" localSheetId="7" hidden="1">Products!$G$8:$G$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">Transportation!$J$15:$J$17</definedName>
     <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'Hot dog'!$G$7</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">LegoII!$K$27</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">LegoII3!$S$6</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Legos!$H$17</definedName>
     <definedName name="solver_opt" localSheetId="7" hidden="1">Products!$K$4</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">ThemePark!$I$7</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">Transportation!$M$9</definedName>
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">'Hot dog'!$I$12:$I$14</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">LegoII!$K$8:$K$9</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">LegoII3!$K$9:$K$14</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Legos!$K$8:$K$9</definedName>
     <definedName name="solver_rhs1" localSheetId="7" hidden="1">Products!$K$10</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">ThemePark!$K$9:$K$14</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">Transportation!$M$13:$M$14</definedName>
     <definedName name="solver_rhs2" localSheetId="6" hidden="1">'Hot dog'!$I$9:$I$11</definedName>
     <definedName name="solver_rhs2" localSheetId="7" hidden="1">Products!$K$8:$K$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">Transportation!$M$15:$M$17</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -226,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="124">
   <si>
     <t>Tables</t>
   </si>
@@ -568,6 +602,36 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
   </si>
 </sst>
 </file>
@@ -580,7 +644,7 @@
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,6 +738,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -735,7 +814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1306,15 +1385,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -1565,13 +1660,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="46" xfId="5"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Currency 2" xfId="4" xr:uid="{18BF1254-4139-4D07-AD4B-CD80448BBC34}"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{B99F33C2-6816-4DFD-8115-70F3C4FF7288}"/>
+    <cellStyle name="Output" xfId="5" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2372,7 +2473,7 @@
   <dimension ref="A2:L9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,7 +3203,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3798,7 +3899,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -4254,7 +4355,7 @@
   <dimension ref="A2:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4410,4 +4511,309 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922BFE68-9392-4F77-85FB-D4453EC648CD}">
+  <dimension ref="B2:M19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D3" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="98">
+        <f>SUMPRODUCT(C10:H10,C9:H9)</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="100">
+        <v>1</v>
+      </c>
+      <c r="F13" s="100">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>SUMPRODUCT(C13:H13,C$9:H$9)</f>
+        <v>60</v>
+      </c>
+      <c r="L13" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="100">
+        <v>0</v>
+      </c>
+      <c r="F14" s="100">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>SUMPRODUCT(C14:H14,C$9:H$9)</f>
+        <v>40</v>
+      </c>
+      <c r="L14" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="100">
+        <v>0</v>
+      </c>
+      <c r="F15" s="100">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>SUMPRODUCT(C15:H15,C$9:H$9)</f>
+        <v>40</v>
+      </c>
+      <c r="L15" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="100">
+        <v>0</v>
+      </c>
+      <c r="F16" s="100">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>SUMPRODUCT(C16:H16,C$9:H$9)</f>
+        <v>35</v>
+      </c>
+      <c r="L16" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="100">
+        <v>1</v>
+      </c>
+      <c r="F17" s="100">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f>SUMPRODUCT(C17:H17,C$9:H$9)</f>
+        <v>25</v>
+      </c>
+      <c r="L17" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>